--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/117.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/117.xlsx
@@ -479,13 +479,13 @@
         <v>0.01384875771553454</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.302618909570453</v>
+        <v>-1.273171199624916</v>
       </c>
       <c r="F2" t="n">
-        <v>0.131815557679434</v>
+        <v>0.1234976637055272</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09407185448135325</v>
+        <v>0.08395664130753779</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.03615027813581447</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.279112135306824</v>
+        <v>-1.257579346062102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03857396649782269</v>
+        <v>0.03263741096018792</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1255242104557084</v>
+        <v>0.1125283223985301</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.05624418685079129</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.288431622271094</v>
+        <v>-1.263066206787737</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03360059078006702</v>
+        <v>-0.02527977670997834</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1021955620591692</v>
+        <v>0.08093288171126586</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.06505771716574558</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.335271425075536</v>
+        <v>-1.321841902735357</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04026425026697432</v>
+        <v>-0.03189087446561293</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1136350388514389</v>
+        <v>0.1026540171597146</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.05966364927739821</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.373546585778707</v>
+        <v>-1.369522693240163</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02179318186888837</v>
+        <v>-0.008692170349164615</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1140161114031661</v>
+        <v>0.1027036587948055</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.03994021695039886</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.227258527358201</v>
+        <v>-1.192944477125665</v>
       </c>
       <c r="F7" t="n">
-        <v>0.099736841074079</v>
+        <v>0.1424155068194312</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05289849831772794</v>
+        <v>0.03731686509155031</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.01046404425030062</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9208134137016469</v>
+        <v>-0.8837208919521115</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2074577291732319</v>
+        <v>0.2404694165086776</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01174704287546626</v>
+        <v>-0.0008064506101667326</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.01939110072360492</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5251900227004804</v>
+        <v>-0.5034061051841227</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2798877948670306</v>
+        <v>0.3243944408222005</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05526770444915211</v>
+        <v>-0.07667054941378272</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03104678767373896</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.07961400636505467</v>
+        <v>-0.08573890810641666</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2766537883456678</v>
+        <v>0.3342614458205615</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04309090337097356</v>
+        <v>-0.06259568581742286</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.004475039212613833</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6098630435566693</v>
+        <v>0.5909671011641289</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1065844666204408</v>
+        <v>0.183804950100511</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09442619424732342</v>
+        <v>-0.1222722314371341</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.07877748394378378</v>
       </c>
       <c r="E12" t="n">
-        <v>1.398547441159458</v>
+        <v>1.376432092726463</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2318196396980138</v>
+        <v>-0.1551612747329435</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007105549994467507</v>
+        <v>-0.01796639582261667</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2278146118938878</v>
       </c>
       <c r="E13" t="n">
-        <v>2.088506306951182</v>
+        <v>2.032126549920742</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6918472120372539</v>
+        <v>-0.6133375060929114</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1353649345884331</v>
+        <v>0.1142540992419842</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4395573682426276</v>
       </c>
       <c r="E14" t="n">
-        <v>2.810097114632442</v>
+        <v>2.739600152611006</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.273400427175189</v>
+        <v>-1.220980320567294</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2342466915452247</v>
+        <v>0.1898422489564184</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7020032883871518</v>
       </c>
       <c r="E15" t="n">
-        <v>3.503897366951347</v>
+        <v>3.425137992783459</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.855047815414987</v>
+        <v>-1.801211462158911</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4013900768962707</v>
+        <v>0.3633558241280991</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9908734961387367</v>
       </c>
       <c r="E16" t="n">
-        <v>4.104512969964185</v>
+        <v>4.023899334720843</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.52285556159549</v>
+        <v>-2.469568186421595</v>
       </c>
       <c r="G16" t="n">
-        <v>0.608876051047215</v>
+        <v>0.5821527908393132</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.283870366439374</v>
       </c>
       <c r="E17" t="n">
-        <v>4.689127905948756</v>
+        <v>4.608039755075868</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.157244997047228</v>
+        <v>-3.086123134442884</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8169066231360682</v>
+        <v>0.7790402758983511</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.567728361320225</v>
       </c>
       <c r="E18" t="n">
-        <v>5.254048253235059</v>
+        <v>5.169328962760082</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.846617653530452</v>
+        <v>-3.765652876721246</v>
       </c>
       <c r="G18" t="n">
-        <v>1.070670281576455</v>
+        <v>1.042343888564735</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.832361435996681</v>
       </c>
       <c r="E19" t="n">
-        <v>5.773915896580192</v>
+        <v>5.682254077432944</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.458068273425924</v>
+        <v>-4.377516690226446</v>
       </c>
       <c r="G19" t="n">
-        <v>1.302956632599574</v>
+        <v>1.273847653811127</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.071371244690922</v>
       </c>
       <c r="E20" t="n">
-        <v>6.140418628408185</v>
+        <v>6.035016296677394</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.99128440644219</v>
+        <v>-4.884372384985401</v>
       </c>
       <c r="G20" t="n">
-        <v>1.509118343132064</v>
+        <v>1.486854069793798</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.273564254932393</v>
       </c>
       <c r="E21" t="n">
-        <v>6.492700491830726</v>
+        <v>6.417370770628382</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.393459033227264</v>
+        <v>-5.268549728977889</v>
       </c>
       <c r="G21" t="n">
-        <v>1.729900975246914</v>
+        <v>1.696623559158923</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.428347494551882</v>
       </c>
       <c r="E22" t="n">
-        <v>6.813629282549094</v>
+        <v>6.756462559597655</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.589344925295939</v>
+        <v>-5.45945758708061</v>
       </c>
       <c r="G22" t="n">
-        <v>1.802982222389258</v>
+        <v>1.77009463914154</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.532112981539957</v>
       </c>
       <c r="E23" t="n">
-        <v>6.966522598532872</v>
+        <v>6.890429272178983</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.800976706001018</v>
+        <v>-5.697906801095455</v>
       </c>
       <c r="G23" t="n">
-        <v>1.938079012192949</v>
+        <v>1.913341417388683</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.585749521239794</v>
       </c>
       <c r="E24" t="n">
-        <v>7.14940092215964</v>
+        <v>7.085890290253203</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.752935283617759</v>
+        <v>-5.649485766208559</v>
       </c>
       <c r="G24" t="n">
-        <v>2.006860417707567</v>
+        <v>1.978444961762302</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.596704837353368</v>
       </c>
       <c r="E25" t="n">
-        <v>7.180013750481724</v>
+        <v>7.114514533075468</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.697745465781409</v>
+        <v>-5.606348645362662</v>
       </c>
       <c r="G25" t="n">
-        <v>1.987806790121208</v>
+        <v>1.962769885458306</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.571355980558584</v>
       </c>
       <c r="E26" t="n">
-        <v>7.15920222499391</v>
+        <v>7.099067224273654</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.564051052169036</v>
+        <v>-5.486420295175421</v>
       </c>
       <c r="G26" t="n">
-        <v>1.920232844377772</v>
+        <v>1.893797213643779</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.516043771733262</v>
       </c>
       <c r="E27" t="n">
-        <v>7.028148308353946</v>
+        <v>6.980397435540777</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.473664585029197</v>
+        <v>-5.411068673251714</v>
       </c>
       <c r="G27" t="n">
-        <v>1.890919458856598</v>
+        <v>1.872473211276058</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.438260022187486</v>
       </c>
       <c r="E28" t="n">
-        <v>6.976799877044778</v>
+        <v>6.929567321303882</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.280937507005204</v>
+        <v>-5.227756715341945</v>
       </c>
       <c r="G28" t="n">
-        <v>1.835637657990522</v>
+        <v>1.816751935934618</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.344591978241336</v>
       </c>
       <c r="E29" t="n">
-        <v>6.793255771488554</v>
+        <v>6.750663248580566</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.152109433679829</v>
+        <v>-5.115284830754975</v>
       </c>
       <c r="G29" t="n">
-        <v>1.777248874786992</v>
+        <v>1.777095569737447</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.241922468336585</v>
       </c>
       <c r="E30" t="n">
-        <v>6.699459362032398</v>
+        <v>6.664247382223953</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.077866718281167</v>
+        <v>-5.061421466609217</v>
       </c>
       <c r="G30" t="n">
-        <v>1.735094366306276</v>
+        <v>1.742543531666092</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.134060789856899</v>
       </c>
       <c r="E31" t="n">
-        <v>6.468164383663005</v>
+        <v>6.455659071764372</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.889504454024945</v>
+        <v>-4.8876567631659</v>
       </c>
       <c r="G31" t="n">
-        <v>1.6140958008684</v>
+        <v>1.617842284269671</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.025766731633666</v>
       </c>
       <c r="E32" t="n">
-        <v>6.209090530315984</v>
+        <v>6.195350017732443</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.692122742687134</v>
+        <v>-4.688017817479545</v>
       </c>
       <c r="G32" t="n">
-        <v>1.484814382610798</v>
+        <v>1.498642498079794</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.919413755130158</v>
       </c>
       <c r="E33" t="n">
-        <v>5.967021857083776</v>
+        <v>5.957976859160597</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.489222049565689</v>
+        <v>-4.489898781855825</v>
       </c>
       <c r="G33" t="n">
-        <v>1.468578647839893</v>
+        <v>1.48462457635898</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.815341360171705</v>
       </c>
       <c r="E34" t="n">
-        <v>5.626125448674141</v>
+        <v>5.609778750248327</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.360500559750951</v>
+        <v>-4.353752217474771</v>
       </c>
       <c r="G34" t="n">
-        <v>1.383119112982825</v>
+        <v>1.407551557736092</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.713135529970552</v>
       </c>
       <c r="E35" t="n">
-        <v>5.322972743462586</v>
+        <v>5.328075611540312</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.245760490454754</v>
+        <v>-4.2408226078113</v>
       </c>
       <c r="G35" t="n">
-        <v>1.351510531862743</v>
+        <v>1.3747238364601</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.609512676808983</v>
       </c>
       <c r="E36" t="n">
-        <v>5.006444537690216</v>
+        <v>5.013721417375305</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.160417759444959</v>
+        <v>-4.144474034292235</v>
       </c>
       <c r="G36" t="n">
-        <v>1.267410301778311</v>
+        <v>1.289804519396669</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.504117029487884</v>
       </c>
       <c r="E37" t="n">
-        <v>4.636758901024042</v>
+        <v>4.640660149522951</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.086769283619297</v>
+        <v>-4.086061160295206</v>
       </c>
       <c r="G37" t="n">
-        <v>1.18475843940006</v>
+        <v>1.196076732200785</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.396600893927573</v>
       </c>
       <c r="E38" t="n">
-        <v>4.313657558746402</v>
+        <v>4.338427274608669</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.999880361681229</v>
+        <v>-3.986876443359551</v>
       </c>
       <c r="G38" t="n">
-        <v>1.149927532143342</v>
+        <v>1.163514739677339</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.28593653035418</v>
       </c>
       <c r="E39" t="n">
-        <v>3.963234336543587</v>
+        <v>3.965288624207496</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.859392344301858</v>
+        <v>-3.842069603727272</v>
       </c>
       <c r="G39" t="n">
-        <v>1.072496801738182</v>
+        <v>1.085745278115087</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.175413945022227</v>
       </c>
       <c r="E40" t="n">
-        <v>3.63723041866122</v>
+        <v>3.646507564230854</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.752783282823932</v>
+        <v>-3.744511380364889</v>
       </c>
       <c r="G40" t="n">
-        <v>0.982646902271751</v>
+        <v>1.001569125529928</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.066488597569617</v>
       </c>
       <c r="E41" t="n">
-        <v>3.412615160307735</v>
+        <v>3.424267804121277</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.724501421278985</v>
+        <v>-3.72034758446035</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9056498061495899</v>
+        <v>0.9167812127946778</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9623035167442184</v>
       </c>
       <c r="E42" t="n">
-        <v>3.100678805781273</v>
+        <v>3.102060011275273</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.663970747526092</v>
+        <v>-3.647796334775006</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8506337340360591</v>
+        <v>0.8628338958836923</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8651212788247948</v>
       </c>
       <c r="E43" t="n">
-        <v>2.929872159770137</v>
+        <v>2.943530909660588</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.593964361663202</v>
+        <v>-3.578698098824661</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8327627454033367</v>
+        <v>0.8419581282798797</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7746689110796059</v>
       </c>
       <c r="E44" t="n">
-        <v>2.690574657814474</v>
+        <v>2.704332690975107</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.553248000552031</v>
+        <v>-3.555303748264031</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7472798497768142</v>
+        <v>0.7552414920165393</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6919690208339822</v>
       </c>
       <c r="E45" t="n">
-        <v>2.497201508510253</v>
+        <v>2.508511041022432</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.445649756492514</v>
+        <v>-3.44308080187656</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6449786601911144</v>
+        <v>0.6544485321087482</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6158607242058883</v>
       </c>
       <c r="E46" t="n">
-        <v>2.280661776147584</v>
+        <v>2.294862203879762</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.365350761612763</v>
+        <v>-3.369635272735535</v>
       </c>
       <c r="G46" t="n">
-        <v>0.65437114955993</v>
+        <v>0.669180417346017</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.545169537351045</v>
       </c>
       <c r="E47" t="n">
-        <v>2.014534430473383</v>
+        <v>2.001103448085114</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.306367008812188</v>
+        <v>-3.31675744105114</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5553901093329566</v>
+        <v>0.5674019249768625</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4805874701049899</v>
       </c>
       <c r="E48" t="n">
-        <v>1.819569828750072</v>
+        <v>1.801164462516077</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.218065490346167</v>
+        <v>-3.221492953239575</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4467450107922585</v>
+        <v>0.4649488903897082</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.420927402332156</v>
       </c>
       <c r="E49" t="n">
-        <v>1.674338845147384</v>
+        <v>1.63636591439903</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.151915091491366</v>
+        <v>-3.154684072695774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3814867013210033</v>
+        <v>0.3884423704260924</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3669158652684043</v>
       </c>
       <c r="E50" t="n">
-        <v>1.533321560335058</v>
+        <v>1.495810004783431</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.085171183087611</v>
+        <v>-3.097415146377972</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2960227863196627</v>
+        <v>0.2934983631704815</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3181588640017674</v>
       </c>
       <c r="E51" t="n">
-        <v>1.411617791669272</v>
+        <v>1.36292956798174</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.99699960890168</v>
+        <v>-3.006827922625632</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2590558287059453</v>
+        <v>0.2673708025836704</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2736976112052111</v>
       </c>
       <c r="E52" t="n">
-        <v>1.246077539122044</v>
+        <v>1.201464309656238</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.882075573546029</v>
+        <v>-2.888666230628391</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2375376399421329</v>
+        <v>0.2323807500850434</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2340528309325591</v>
       </c>
       <c r="E53" t="n">
-        <v>1.070717003115364</v>
+        <v>1.024231991997013</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.760338223774153</v>
+        <v>-2.782222154584738</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1545981480899734</v>
+        <v>0.1469212152279754</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1983382356064949</v>
       </c>
       <c r="E54" t="n">
-        <v>1.01477964065647</v>
+        <v>0.9928511783791119</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.711146283495257</v>
+        <v>-2.725121863821435</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1284063453871622</v>
+        <v>0.110914969258076</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1660745735051112</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8590217103183296</v>
+        <v>0.8170876690993409</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.74338268529443</v>
+        <v>-2.757110057445154</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09746354619653415</v>
+        <v>0.07843619947581199</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1375192344179849</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7476215010300868</v>
+        <v>0.6896240107149206</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.647103464059684</v>
+        <v>-2.658276482075362</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08755565985162772</v>
+        <v>0.06587686579781536</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1119293321902795</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6651638250479271</v>
+        <v>0.606030417318034</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.634687215094596</v>
+        <v>-2.64431769230223</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04867749928691089</v>
+        <v>0.02285946889537237</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.09044020433275127</v>
       </c>
       <c r="E58" t="n">
-        <v>0.638891719700116</v>
+        <v>0.5790706293194048</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.660065771010771</v>
+        <v>-2.668214299406132</v>
       </c>
       <c r="G58" t="n">
-        <v>0.003586834095377542</v>
+        <v>-0.02548272339461465</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.07269662756761311</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6117435854977596</v>
+        <v>0.5367029538174162</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.62395367155428</v>
+        <v>-2.637525548583322</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.01128229566243665</v>
+        <v>-0.04829305471888126</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.05908739400026986</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5762468963115874</v>
+        <v>0.5132166202270588</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.62360691013269</v>
+        <v>-2.63828404356655</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.05735265312296973</v>
+        <v>-0.1046290103065934</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.04956108810217592</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4414698570398054</v>
+        <v>0.3733235724447328</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.65760558997759</v>
+        <v>-2.684611369491082</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.08356197640287179</v>
+        <v>-0.1303433772836774</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.04288688343297093</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4108336679482682</v>
+        <v>0.3410200084333778</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.672931714787858</v>
+        <v>-2.683909086359356</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1170364989831355</v>
+        <v>-0.1701778693479394</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.03802871153451551</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3438262208641044</v>
+        <v>0.270111312850306</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.758875985611108</v>
+        <v>-2.778304115532785</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.180755917766573</v>
+        <v>-0.231352424308923</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.03391350756043721</v>
       </c>
       <c r="E64" t="n">
-        <v>0.304445803756115</v>
+        <v>0.215674879828866</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.762817385432516</v>
+        <v>-2.774917533985922</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1847520693913901</v>
+        <v>-0.2370480719115579</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.02946858860618997</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2468016450789486</v>
+        <v>0.1560727966617911</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.75752179100679</v>
+        <v>-2.757824020961608</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2250917380951065</v>
+        <v>-0.2741435137572751</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.02379631323377622</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2015094932508699</v>
+        <v>0.108467928657713</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.8558866909394</v>
+        <v>-2.855858950025673</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2323350366741046</v>
+        <v>-0.2786857233680921</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.01561875459766544</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1787561038021487</v>
+        <v>0.07480944001799478</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.853787141784673</v>
+        <v>-2.854798955111673</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2340330726038314</v>
+        <v>-0.285915881514272</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.005440666880986341</v>
       </c>
       <c r="E68" t="n">
-        <v>0.160839853678608</v>
+        <v>0.05147641147718286</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.949018778514193</v>
+        <v>-2.950600010596647</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.303778109858449</v>
+        <v>-0.3600965448690703</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.005934069272667204</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1142102977992569</v>
+        <v>0.007193152879922028</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.955955466994101</v>
+        <v>-2.963889368320098</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2699473355440036</v>
+        <v>-0.3196210916928993</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.01767550083401225</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02669793532637134</v>
+        <v>-0.09085637666505164</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.063812139565708</v>
+        <v>-3.076511637860432</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3268278890696246</v>
+        <v>-0.3828981159047914</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.02902219433904212</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.0115772253768002</v>
+        <v>-0.1281854262053143</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.153628457926048</v>
+        <v>-3.172985775515315</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3945726604396974</v>
+        <v>-0.4523891047915909</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.04013645170695591</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.0247351787720694</v>
+        <v>-0.1480990221172181</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.265393679237017</v>
+        <v>-3.294639172521964</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4196577466895997</v>
+        <v>-0.4753235402035847</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.0510942100486349</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.0569788808116971</v>
+        <v>-0.1735505804379385</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.206032504004942</v>
+        <v>-3.231936677233845</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4512794682425003</v>
+        <v>-0.5110304763148479</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.06215360255007338</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.09601618661832298</v>
+        <v>-0.2266101881096516</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.271677726220288</v>
+        <v>-3.301308672201235</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5063043006445764</v>
+        <v>-0.5661925532374694</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.07307083599519226</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.05604152993733372</v>
+        <v>-0.1828043652381179</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.27450875946856</v>
+        <v>-3.31213857891555</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.554398284759109</v>
+        <v>-0.6033186560930959</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.08350351000207983</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.08940800895887022</v>
+        <v>-0.2257166386780154</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.206377805378442</v>
+        <v>-3.229683823029573</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5709683705428318</v>
+        <v>-0.6255800093351808</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.0933141834344853</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.06463537300042232</v>
+        <v>-0.2109409519980194</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.218053079937394</v>
+        <v>-3.233721586024981</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.565608534001106</v>
+        <v>-0.5993590056705514</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1022606932475687</v>
       </c>
       <c r="E78" t="n">
-        <v>0.02450786319000829</v>
+        <v>-0.1057050657495931</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.152336315365593</v>
+        <v>-3.163671398719363</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5886072115290998</v>
+        <v>-0.6267495078559987</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1101592917898965</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08394642097090142</v>
+        <v>-0.03917359434306552</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.065761303767071</v>
+        <v>-3.085617227779384</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5613846148741071</v>
+        <v>-0.5873457299785547</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1164555144418487</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1756359810318768</v>
+        <v>0.05007768540609233</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.012806089533858</v>
+        <v>-3.019883672654538</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6159232512619106</v>
+        <v>-0.6340453681662694</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1204980590672522</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2633907114878533</v>
+        <v>0.1444318332329761</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.90364705406516</v>
+        <v>-2.905183024656796</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5517161764161097</v>
+        <v>-0.5639177983118338</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1218627448309236</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3446993296224677</v>
+        <v>0.2354643716530425</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.738603217868841</v>
+        <v>-2.747823421562929</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5535718975396546</v>
+        <v>-0.5634535030189247</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1204212860171625</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6348181855264807</v>
+        <v>0.5150898619276948</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.64627853688832</v>
+        <v>-2.661028672726725</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5203163821730272</v>
+        <v>-0.539910227553022</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1161553119777076</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8913048336564119</v>
+        <v>0.7764005089499882</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.460945872420734</v>
+        <v>-2.484078874373091</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5252469645760259</v>
+        <v>-0.5320683092567513</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1099955384181569</v>
       </c>
       <c r="E85" t="n">
-        <v>1.091588390574904</v>
+        <v>0.9846646887333869</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.237111739795885</v>
+        <v>-2.258620438247106</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5221064011324813</v>
+        <v>-0.5276297630603889</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1024475104301658</v>
       </c>
       <c r="E86" t="n">
-        <v>1.408039213798455</v>
+        <v>1.309401284872845</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.126791236070869</v>
+        <v>-2.149059159529362</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4664625083398599</v>
+        <v>-0.4666435543031325</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09442468494413001</v>
       </c>
       <c r="E87" t="n">
-        <v>1.702411189791285</v>
+        <v>1.609229460581401</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.954448619468097</v>
+        <v>-1.985249063969861</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4337121696126868</v>
+        <v>-0.4412241170404121</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08741708282559975</v>
       </c>
       <c r="E88" t="n">
-        <v>1.909660636151502</v>
+        <v>1.811400859681437</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.71795732994316</v>
+        <v>-1.733111169078702</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4415000661295939</v>
+        <v>-0.4413350806953212</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.08274948146607969</v>
       </c>
       <c r="E89" t="n">
-        <v>2.107681118529085</v>
+        <v>2.02256323492529</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.574964600063835</v>
+        <v>-1.590279044489376</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.3580203564837981</v>
+        <v>-0.3487169300485279</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.08338194880497558</v>
       </c>
       <c r="E90" t="n">
-        <v>2.224559428254417</v>
+        <v>2.150718956104801</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.391023361426884</v>
+        <v>-1.404276217948063</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3167024555591728</v>
+        <v>-0.3114097812296288</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.0917672554069035</v>
       </c>
       <c r="E91" t="n">
-        <v>2.269235439788133</v>
+        <v>2.210366300762694</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.203761973431207</v>
+        <v>-1.210529296332569</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2936351557709063</v>
+        <v>-0.2961595789200874</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1111654547149469</v>
       </c>
       <c r="E92" t="n">
-        <v>2.172367089148704</v>
+        <v>2.128612367960352</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.05602554730452</v>
+        <v>-1.059211372238883</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2679353892747314</v>
+        <v>-0.2742165161618206</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.144782749222595</v>
       </c>
       <c r="E93" t="n">
-        <v>2.090934366926362</v>
+        <v>2.055788089282008</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8663258789970252</v>
+        <v>-0.8566808013084823</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2394834321271936</v>
+        <v>-0.2548825593420076</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1920691553216758</v>
       </c>
       <c r="E94" t="n">
-        <v>1.953853371767126</v>
+        <v>1.922955834067317</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8159308590912205</v>
+        <v>-0.8064011252018595</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1900111626148432</v>
+        <v>-0.2094020613102016</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2514371589708784</v>
       </c>
       <c r="E95" t="n">
-        <v>1.838692078596703</v>
+        <v>1.83251753522025</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6175074034405466</v>
+        <v>-0.6035478836433685</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1701019468472122</v>
+        <v>-0.1791863660688461</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3171359786252985</v>
       </c>
       <c r="E96" t="n">
-        <v>1.682792523593745</v>
+        <v>1.680653553140564</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4814907833395831</v>
+        <v>-0.4512955287715003</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1379575280777663</v>
+        <v>-0.1495838910256722</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3825378036609188</v>
       </c>
       <c r="E97" t="n">
-        <v>1.545020925687509</v>
+        <v>1.536869477195966</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.3240756984182617</v>
+        <v>-0.2939549063028153</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1252565697349515</v>
+        <v>-0.1448051536241281</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4403315010759826</v>
       </c>
       <c r="E98" t="n">
-        <v>1.399700879151275</v>
+        <v>1.384111945684643</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1845345222258447</v>
+        <v>-0.1569629740771248</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1425464592274923</v>
+        <v>-0.1460520346937641</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4848004983960179</v>
       </c>
       <c r="E99" t="n">
-        <v>1.268165146641311</v>
+        <v>1.253531084626133</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.03720106937224787</v>
+        <v>-0.004335386845893058</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1870312044612985</v>
+        <v>-0.2019353753732945</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5144951718508977</v>
       </c>
       <c r="E100" t="n">
-        <v>1.22841387731823</v>
+        <v>1.216628369128415</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05457463352609113</v>
+        <v>0.08434939424399222</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2002271191069314</v>
+        <v>-0.2152831350203819</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.53099818313303</v>
       </c>
       <c r="E101" t="n">
-        <v>1.140132069501436</v>
+        <v>1.115996014510624</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1009340805086241</v>
+        <v>0.1276369000432533</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1654458534853043</v>
+        <v>-0.1708129902674847</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5346582080687886</v>
       </c>
       <c r="E102" t="n">
-        <v>1.114376821177806</v>
+        <v>1.088805538913632</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1255096099747993</v>
+        <v>0.1384427159640686</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2381182871621939</v>
+        <v>-0.2520632064784629</v>
       </c>
     </row>
   </sheetData>
